--- a/balance_checker/결의서전표.xlsx
+++ b/balance_checker/결의서전표.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="120" yWindow="45" windowWidth="15015" windowHeight="10935"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="194" uniqueCount="96">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="177" uniqueCount="88">
   <si>
     <t>순번</t>
   </si>
@@ -29,290 +29,263 @@
   </si>
   <si>
     <t>지출금액</t>
-  </si>
-  <si>
-    <t>2019/12/31-2</t>
-  </si>
-  <si>
-    <t>2019/12/29-3</t>
-  </si>
-  <si>
-    <t>2019/12/29-2</t>
-  </si>
-  <si>
-    <t>2019/12/28-3</t>
-  </si>
-  <si>
-    <t>2019/12/26-1</t>
-  </si>
-  <si>
-    <t>2019/12/23-4</t>
-  </si>
-  <si>
-    <t>2019/12/23-3</t>
-  </si>
-  <si>
-    <t>2019/12/19-9</t>
-  </si>
-  <si>
-    <t>2019/12/19-8</t>
-  </si>
-  <si>
-    <t>2019/12/05-2</t>
-  </si>
-  <si>
-    <t>2019/11/30-4</t>
-  </si>
-  <si>
-    <t>2019/11/27-2</t>
-  </si>
-  <si>
-    <t>2019/11/26-2</t>
-  </si>
-  <si>
-    <t>2019/11/25-3</t>
-  </si>
-  <si>
-    <t>2019/11/22-3</t>
-  </si>
-  <si>
-    <t>2019/11/08-5</t>
-  </si>
-  <si>
-    <t>2019/11/05-3</t>
-  </si>
-  <si>
-    <t>2019/11/04-2</t>
-  </si>
-  <si>
-    <t>2019/10/29-3</t>
-  </si>
-  <si>
-    <t>2019/10/25-2</t>
-  </si>
-  <si>
-    <t>2019/10/23-3</t>
-  </si>
-  <si>
-    <t>2019/10/22-2</t>
-  </si>
-  <si>
-    <t>2019/09/30-3</t>
-  </si>
-  <si>
-    <t>2019/09/26-4</t>
-  </si>
-  <si>
-    <t>2019/09/25-2</t>
-  </si>
-  <si>
-    <t>2019/09/23-2</t>
-  </si>
-  <si>
-    <t>2019/09/07-3</t>
-  </si>
-  <si>
-    <t>2019/08/29-5</t>
-  </si>
-  <si>
-    <t>2019/08/29-3</t>
-  </si>
-  <si>
-    <t>2019/08/26-4</t>
-  </si>
-  <si>
-    <t>2019/08/26-1</t>
-  </si>
-  <si>
-    <t>2019/08/25-1</t>
-  </si>
-  <si>
-    <t>2019/08/23-2</t>
-  </si>
-  <si>
-    <t>2019/08/12-1</t>
-  </si>
-  <si>
-    <t>2019/07/30-6</t>
-  </si>
-  <si>
-    <t>2019/07/30-2</t>
-  </si>
-  <si>
-    <t>2019/07/30-1</t>
-  </si>
-  <si>
-    <t>2019/07/28-1</t>
-  </si>
-  <si>
-    <t>2019/07/27-1</t>
-  </si>
-  <si>
-    <t>2019/07/26-1</t>
-  </si>
-  <si>
-    <t>2019/07/25-1</t>
-  </si>
-  <si>
-    <t>2019/07/24-1</t>
-  </si>
-  <si>
-    <t>2019/07/23-3</t>
-  </si>
-  <si>
-    <t>2019/07/22-1</t>
-  </si>
-  <si>
-    <t>2019/07/13-1</t>
-  </si>
-  <si>
-    <t>2019/07/06-1</t>
-  </si>
-  <si>
-    <t>2019/07/04-1</t>
-  </si>
-  <si>
-    <t>2019/07/03-1</t>
-  </si>
-  <si>
-    <t>2019/06/29-1</t>
-  </si>
-  <si>
-    <t>2019/06/26-1</t>
-  </si>
-  <si>
-    <t>2019/06/25-2</t>
-  </si>
-  <si>
-    <t>2019/06/24-1</t>
-  </si>
-  <si>
-    <t>2019/06/23-2</t>
-  </si>
-  <si>
-    <t>2019/06/23-1</t>
-  </si>
-  <si>
-    <t>2019/06/22-1</t>
-  </si>
-  <si>
-    <t>2019/06/21-1</t>
-  </si>
-  <si>
-    <t>2019/06/17-1</t>
-  </si>
-  <si>
-    <t>2019/06/15-1</t>
-  </si>
-  <si>
-    <t>2019/06/10-1</t>
-  </si>
-  <si>
-    <t>2019/05/28-2</t>
-  </si>
-  <si>
-    <t>2019/05/27-2</t>
-  </si>
-  <si>
-    <t>2019/05/23-2</t>
-  </si>
-  <si>
-    <t>2019/05/09-3</t>
-  </si>
-  <si>
-    <t>2019/04/25-2</t>
-  </si>
-  <si>
-    <t>2019/04/23-3</t>
-  </si>
-  <si>
-    <t>2019/04/10-2</t>
-  </si>
-  <si>
-    <t>2019/04/09-2</t>
-  </si>
-  <si>
-    <t>2019/04/06-2</t>
-  </si>
-  <si>
-    <t>2019/03/31-1</t>
-  </si>
-  <si>
-    <t>2019/03/27-2</t>
-  </si>
-  <si>
-    <t>2019/03/25-2</t>
-  </si>
-  <si>
-    <t>2019/03/05-2</t>
-  </si>
-  <si>
-    <t>2019/02/28-2</t>
-  </si>
-  <si>
-    <t>2019/02/25-4</t>
-  </si>
-  <si>
-    <t>2019/02/23-3</t>
-  </si>
-  <si>
-    <t>2019/02/20-6</t>
-  </si>
-  <si>
-    <t>2019/02/20-5</t>
-  </si>
-  <si>
-    <t>2019/02/19-2</t>
-  </si>
-  <si>
-    <t>2019/02/18-3</t>
-  </si>
-  <si>
-    <t>2019/02/07-2</t>
-  </si>
-  <si>
-    <t>2019/01/25-5</t>
-  </si>
-  <si>
-    <t>2019/01/25-4</t>
-  </si>
-  <si>
-    <t>2019/01/25-3</t>
-  </si>
-  <si>
-    <t>2019/01/23-2</t>
-  </si>
-  <si>
-    <t>2019/01/21-2</t>
-  </si>
-  <si>
-    <t>2019/01/18-2</t>
-  </si>
-  <si>
-    <t>2019/01/10-3</t>
-  </si>
-  <si>
-    <t>2019/01/09-2</t>
-  </si>
-  <si>
-    <t>2019/01/04-2</t>
-  </si>
-  <si>
-    <t>합계</t>
   </si>
   <si>
     <t>dummy</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2019/12/30-1</t>
+  </si>
+  <si>
+    <t>2019/12/29-5</t>
+  </si>
+  <si>
+    <t>2019/12/29-4</t>
+  </si>
+  <si>
+    <t>2019/12/24-2</t>
+  </si>
+  <si>
+    <t>2019/12/23-5</t>
+  </si>
+  <si>
+    <t>2019/12/21-2</t>
+  </si>
+  <si>
+    <t>2019/11/29-2</t>
+  </si>
+  <si>
+    <t>2019/11/27-3</t>
+  </si>
+  <si>
+    <t>2019/11/18-3</t>
+  </si>
+  <si>
+    <t>2019/11/05-4</t>
+  </si>
+  <si>
+    <t>2019/10/28-3</t>
+  </si>
+  <si>
+    <t>2019/10/23-4</t>
+  </si>
+  <si>
+    <t>2019/10/22-3</t>
+  </si>
+  <si>
+    <t>2019/10/19-3</t>
+  </si>
+  <si>
+    <t>2019/10/18-5</t>
+  </si>
+  <si>
+    <t>2019/10/17-2</t>
+  </si>
+  <si>
+    <t>2019/10/15-3</t>
+  </si>
+  <si>
+    <t>2019/10/11-2</t>
+  </si>
+  <si>
+    <t>2019/10/06-1</t>
+  </si>
+  <si>
+    <t>2019/10/05-2</t>
+  </si>
+  <si>
+    <t>2019/10/02-3</t>
+  </si>
+  <si>
+    <t>2019/09/30-5</t>
+  </si>
+  <si>
+    <t>2019/09/30-4</t>
+  </si>
+  <si>
+    <t>2019/09/28-4</t>
+  </si>
+  <si>
+    <t>2019/09/27-2</t>
+  </si>
+  <si>
+    <t>2019/09/26-5</t>
+  </si>
+  <si>
+    <t>2019/09/24-2</t>
+  </si>
+  <si>
+    <t>2019/09/22-1</t>
+  </si>
+  <si>
+    <t>2019/09/16-4</t>
+  </si>
+  <si>
+    <t>2019/09/15-1</t>
+  </si>
+  <si>
+    <t>2019/09/10-2</t>
+  </si>
+  <si>
+    <t>2019/09/07-4</t>
+  </si>
+  <si>
+    <t>2019/09/05-4</t>
+  </si>
+  <si>
+    <t>2019/09/05-3</t>
+  </si>
+  <si>
+    <t>2019/09/04-2</t>
+  </si>
+  <si>
+    <t>2019/08/31-2</t>
+  </si>
+  <si>
+    <t>2019/08/30-3</t>
+  </si>
+  <si>
+    <t>2019/08/21-3</t>
+  </si>
+  <si>
+    <t>2019/08/21-2</t>
+  </si>
+  <si>
+    <t>2019/08/10-4</t>
+  </si>
+  <si>
+    <t>2019/08/07-2</t>
+  </si>
+  <si>
+    <t>2019/08/06-2</t>
+  </si>
+  <si>
+    <t>2019/08/03-3</t>
+  </si>
+  <si>
+    <t>2019/07/29-2</t>
+  </si>
+  <si>
+    <t>2019/07/26-4</t>
+  </si>
+  <si>
+    <t>2019/07/18-3</t>
+  </si>
+  <si>
+    <t>2019/07/09-2</t>
+  </si>
+  <si>
+    <t>2019/07/06-4</t>
+  </si>
+  <si>
+    <t>2019/07/03-4</t>
+  </si>
+  <si>
+    <t>2019/07/03-3</t>
+  </si>
+  <si>
+    <t>2019/06/29-6</t>
+  </si>
+  <si>
+    <t>2019/06/26-3</t>
+  </si>
+  <si>
+    <t>2019/06/24-3</t>
+  </si>
+  <si>
+    <t>2019/06/23-4</t>
+  </si>
+  <si>
+    <t>2019/06/23-3</t>
+  </si>
+  <si>
+    <t>2019/06/17-6</t>
+  </si>
+  <si>
+    <t>2019/06/05-3</t>
+  </si>
+  <si>
+    <t>2019/05/29-2</t>
+  </si>
+  <si>
+    <t>2019/05/27-3</t>
+  </si>
+  <si>
+    <t>2019/05/25-2</t>
+  </si>
+  <si>
+    <t>2019/05/20-2</t>
+  </si>
+  <si>
+    <t>2019/05/19-2</t>
+  </si>
+  <si>
+    <t>2019/05/16-4</t>
+  </si>
+  <si>
+    <t>2019/04/18-4</t>
+  </si>
+  <si>
+    <t>2019/04/17-2</t>
+  </si>
+  <si>
+    <t>2019/04/09-3</t>
+  </si>
+  <si>
+    <t>2019/04/03-3</t>
+  </si>
+  <si>
+    <t>2019/04/01-7</t>
+  </si>
+  <si>
+    <t>2019/03/28-4</t>
+  </si>
+  <si>
+    <t>2019/03/15-2</t>
+  </si>
+  <si>
+    <t>2019/03/13-3</t>
+  </si>
+  <si>
+    <t>2019/03/12-2</t>
+  </si>
+  <si>
+    <t>2019/03/11-2</t>
+  </si>
+  <si>
+    <t>2019/03/10-1</t>
+  </si>
+  <si>
+    <t>2019/02/25-5</t>
+  </si>
+  <si>
+    <t>2019/02/07-3</t>
+  </si>
+  <si>
+    <t>2019/01/23-3</t>
+  </si>
+  <si>
+    <t>2019/01/12-2</t>
+  </si>
+  <si>
+    <t>2019/01/04-3</t>
+  </si>
+  <si>
+    <t>2019/01/02-3</t>
+  </si>
+  <si>
+    <t>2019/12/31-3</t>
+  </si>
+  <si>
+    <t>1</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="1">
-    <numFmt numFmtId="176" formatCode="#,##0_ "/>
-  </numFmts>
-  <fonts count="5">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -342,14 +315,6 @@
       <family val="3"/>
       <charset val="129"/>
     </font>
-    <font>
-      <b/>
-      <sz val="9"/>
-      <color rgb="FF286892"/>
-      <name val="굴림"/>
-      <family val="3"/>
-      <charset val="129"/>
-    </font>
   </fonts>
   <fills count="4">
     <fill>
@@ -371,7 +336,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="6">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -407,50 +372,13 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF000000"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF000000"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF000000"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color rgb="FF000000"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF000000"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -511,33 +439,17 @@
     <xf numFmtId="3" fontId="3" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="176" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="표준" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -616,6 +528,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -650,6 +563,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -825,14 +739,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:O91"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:O82"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
+    <sheetView tabSelected="1" topLeftCell="A35" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="H82" sqref="H82"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="2" width="5.375" customWidth="1"/>
     <col min="3" max="3" width="11.375" customWidth="1"/>
@@ -847,24 +761,24 @@
     <col min="15" max="15" width="6.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>95</v>
+        <v>5</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>95</v>
+        <v>5</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>95</v>
+        <v>5</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>95</v>
+        <v>5</v>
       </c>
       <c r="G1" s="1" t="s">
         <v>3</v>
@@ -873,28 +787,28 @@
         <v>4</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>95</v>
+        <v>5</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>95</v>
+        <v>5</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>95</v>
+        <v>5</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>95</v>
+        <v>5</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>95</v>
+        <v>5</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>95</v>
+        <v>5</v>
       </c>
       <c r="O1" s="1" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="2" spans="1:15">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A2" s="2">
         <v>1</v>
       </c>
@@ -902,16 +816,14 @@
         <v>1</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="D2" s="2"/>
-      <c r="E2" s="4"/>
+        <v>86</v>
+      </c>
       <c r="F2" s="5"/>
-      <c r="G2" s="6">
-        <v>10000</v>
-      </c>
-      <c r="H2" s="7">
-        <v>0</v>
+      <c r="G2" s="7">
+        <v>0</v>
+      </c>
+      <c r="H2" s="6">
+        <v>218030</v>
       </c>
       <c r="I2" s="2"/>
       <c r="J2" s="4"/>
@@ -921,7 +833,7 @@
       <c r="N2" s="3"/>
       <c r="O2" s="3"/>
     </row>
-    <row r="3" spans="1:15">
+    <row r="3" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A3" s="8">
         <v>2</v>
       </c>
@@ -931,11 +843,9 @@
       <c r="C3" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="D3" s="8"/>
-      <c r="E3" s="10"/>
       <c r="F3" s="11"/>
-      <c r="G3" s="12">
-        <v>100</v>
+      <c r="G3" s="18">
+        <v>360000</v>
       </c>
       <c r="H3" s="12">
         <v>0</v>
@@ -948,7 +858,7 @@
       <c r="N3" s="9"/>
       <c r="O3" s="9"/>
     </row>
-    <row r="4" spans="1:15">
+    <row r="4" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A4" s="13">
         <v>3</v>
       </c>
@@ -958,14 +868,12 @@
       <c r="C4" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="D4" s="13"/>
-      <c r="E4" s="15"/>
       <c r="F4" s="16"/>
       <c r="G4" s="17">
-        <v>0</v>
+        <v>111</v>
       </c>
       <c r="H4" s="17">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="I4" s="13"/>
       <c r="J4" s="15"/>
@@ -975,7 +883,7 @@
       <c r="N4" s="14"/>
       <c r="O4" s="14"/>
     </row>
-    <row r="5" spans="1:15">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A5" s="8">
         <v>4</v>
       </c>
@@ -985,14 +893,12 @@
       <c r="C5" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="D5" s="8"/>
-      <c r="E5" s="10"/>
       <c r="F5" s="11"/>
       <c r="G5" s="12">
         <v>0</v>
       </c>
-      <c r="H5" s="18">
-        <v>49000</v>
+      <c r="H5" s="12">
+        <v>10</v>
       </c>
       <c r="I5" s="8"/>
       <c r="J5" s="10"/>
@@ -1002,7 +908,7 @@
       <c r="N5" s="9"/>
       <c r="O5" s="9"/>
     </row>
-    <row r="6" spans="1:15">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A6" s="13">
         <v>5</v>
       </c>
@@ -1012,14 +918,12 @@
       <c r="C6" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="D6" s="13"/>
-      <c r="E6" s="15"/>
       <c r="F6" s="16"/>
-      <c r="G6" s="19">
-        <v>40000</v>
-      </c>
-      <c r="H6" s="17">
-        <v>0</v>
+      <c r="G6" s="17">
+        <v>0</v>
+      </c>
+      <c r="H6" s="19">
+        <v>42500</v>
       </c>
       <c r="I6" s="13"/>
       <c r="J6" s="15"/>
@@ -1029,7 +933,7 @@
       <c r="N6" s="14"/>
       <c r="O6" s="14"/>
     </row>
-    <row r="7" spans="1:15">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A7" s="8">
         <v>6</v>
       </c>
@@ -1039,11 +943,9 @@
       <c r="C7" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="D7" s="8"/>
-      <c r="E7" s="10"/>
       <c r="F7" s="11"/>
       <c r="G7" s="18">
-        <v>10000</v>
+        <v>120000</v>
       </c>
       <c r="H7" s="12">
         <v>0</v>
@@ -1056,7 +958,7 @@
       <c r="N7" s="9"/>
       <c r="O7" s="9"/>
     </row>
-    <row r="8" spans="1:15">
+    <row r="8" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A8" s="13">
         <v>7</v>
       </c>
@@ -1066,14 +968,12 @@
       <c r="C8" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="D8" s="13"/>
-      <c r="E8" s="15"/>
       <c r="F8" s="16"/>
-      <c r="G8" s="17">
-        <v>0</v>
-      </c>
-      <c r="H8" s="19">
-        <v>140792</v>
+      <c r="G8" s="19">
+        <v>120000</v>
+      </c>
+      <c r="H8" s="17">
+        <v>0</v>
       </c>
       <c r="I8" s="13"/>
       <c r="J8" s="15"/>
@@ -1083,7 +983,7 @@
       <c r="N8" s="14"/>
       <c r="O8" s="14"/>
     </row>
-    <row r="9" spans="1:15">
+    <row r="9" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A9" s="8">
         <v>8</v>
       </c>
@@ -1093,11 +993,9 @@
       <c r="C9" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="D9" s="8"/>
-      <c r="E9" s="10"/>
       <c r="F9" s="11"/>
       <c r="G9" s="18">
-        <v>300000</v>
+        <v>120000</v>
       </c>
       <c r="H9" s="12">
         <v>0</v>
@@ -1110,7 +1008,7 @@
       <c r="N9" s="9"/>
       <c r="O9" s="9"/>
     </row>
-    <row r="10" spans="1:15">
+    <row r="10" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A10" s="13">
         <v>9</v>
       </c>
@@ -1120,14 +1018,12 @@
       <c r="C10" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="D10" s="13"/>
-      <c r="E10" s="15"/>
       <c r="F10" s="16"/>
       <c r="G10" s="17">
         <v>0</v>
       </c>
       <c r="H10" s="19">
-        <v>300000</v>
+        <v>200000</v>
       </c>
       <c r="I10" s="13"/>
       <c r="J10" s="15"/>
@@ -1137,7 +1033,7 @@
       <c r="N10" s="14"/>
       <c r="O10" s="14"/>
     </row>
-    <row r="11" spans="1:15">
+    <row r="11" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A11" s="8">
         <v>10</v>
       </c>
@@ -1147,14 +1043,12 @@
       <c r="C11" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="D11" s="8"/>
-      <c r="E11" s="10"/>
       <c r="F11" s="11"/>
-      <c r="G11" s="18">
-        <v>10000</v>
-      </c>
-      <c r="H11" s="12">
-        <v>0</v>
+      <c r="G11" s="12">
+        <v>0</v>
+      </c>
+      <c r="H11" s="18">
+        <v>20000</v>
       </c>
       <c r="I11" s="8"/>
       <c r="J11" s="10"/>
@@ -1164,7 +1058,7 @@
       <c r="N11" s="9"/>
       <c r="O11" s="9"/>
     </row>
-    <row r="12" spans="1:15">
+    <row r="12" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A12" s="13">
         <v>11</v>
       </c>
@@ -1174,14 +1068,12 @@
       <c r="C12" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="D12" s="13"/>
-      <c r="E12" s="15"/>
       <c r="F12" s="16"/>
-      <c r="G12" s="17">
-        <v>0</v>
-      </c>
-      <c r="H12" s="19">
-        <v>23350</v>
+      <c r="G12" s="19">
+        <v>100000</v>
+      </c>
+      <c r="H12" s="17">
+        <v>0</v>
       </c>
       <c r="I12" s="13"/>
       <c r="J12" s="15"/>
@@ -1191,7 +1083,7 @@
       <c r="N12" s="14"/>
       <c r="O12" s="14"/>
     </row>
-    <row r="13" spans="1:15">
+    <row r="13" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A13" s="8">
         <v>12</v>
       </c>
@@ -1201,14 +1093,12 @@
       <c r="C13" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="D13" s="8"/>
-      <c r="E13" s="10"/>
       <c r="F13" s="11"/>
       <c r="G13" s="12">
         <v>0</v>
       </c>
       <c r="H13" s="18">
-        <v>400000</v>
+        <v>61000</v>
       </c>
       <c r="I13" s="8"/>
       <c r="J13" s="10"/>
@@ -1218,7 +1108,7 @@
       <c r="N13" s="9"/>
       <c r="O13" s="9"/>
     </row>
-    <row r="14" spans="1:15">
+    <row r="14" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A14" s="13">
         <v>13</v>
       </c>
@@ -1228,14 +1118,12 @@
       <c r="C14" s="13" t="s">
         <v>17</v>
       </c>
-      <c r="D14" s="13"/>
-      <c r="E14" s="15"/>
       <c r="F14" s="16"/>
-      <c r="G14" s="19">
-        <v>30000</v>
-      </c>
-      <c r="H14" s="17">
-        <v>0</v>
+      <c r="G14" s="17">
+        <v>0</v>
+      </c>
+      <c r="H14" s="19">
+        <v>15000</v>
       </c>
       <c r="I14" s="13"/>
       <c r="J14" s="15"/>
@@ -1245,7 +1133,7 @@
       <c r="N14" s="14"/>
       <c r="O14" s="14"/>
     </row>
-    <row r="15" spans="1:15">
+    <row r="15" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A15" s="8">
         <v>14</v>
       </c>
@@ -1255,14 +1143,12 @@
       <c r="C15" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="D15" s="8"/>
-      <c r="E15" s="10"/>
       <c r="F15" s="11"/>
-      <c r="G15" s="18">
-        <v>30000</v>
-      </c>
-      <c r="H15" s="12">
-        <v>0</v>
+      <c r="G15" s="12">
+        <v>0</v>
+      </c>
+      <c r="H15" s="18">
+        <v>48500</v>
       </c>
       <c r="I15" s="8"/>
       <c r="J15" s="10"/>
@@ -1272,7 +1158,7 @@
       <c r="N15" s="9"/>
       <c r="O15" s="9"/>
     </row>
-    <row r="16" spans="1:15">
+    <row r="16" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A16" s="13">
         <v>15</v>
       </c>
@@ -1282,14 +1168,12 @@
       <c r="C16" s="13" t="s">
         <v>19</v>
       </c>
-      <c r="D16" s="13"/>
-      <c r="E16" s="15"/>
       <c r="F16" s="16"/>
-      <c r="G16" s="19">
-        <v>300000</v>
-      </c>
-      <c r="H16" s="17">
-        <v>0</v>
+      <c r="G16" s="17">
+        <v>0</v>
+      </c>
+      <c r="H16" s="19">
+        <v>17600</v>
       </c>
       <c r="I16" s="13"/>
       <c r="J16" s="15"/>
@@ -1299,7 +1183,7 @@
       <c r="N16" s="14"/>
       <c r="O16" s="14"/>
     </row>
-    <row r="17" spans="1:15">
+    <row r="17" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A17" s="8">
         <v>16</v>
       </c>
@@ -1309,14 +1193,12 @@
       <c r="C17" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="D17" s="8"/>
-      <c r="E17" s="10"/>
       <c r="F17" s="11"/>
       <c r="G17" s="12">
         <v>0</v>
       </c>
       <c r="H17" s="18">
-        <v>40000</v>
+        <v>400000</v>
       </c>
       <c r="I17" s="8"/>
       <c r="J17" s="10"/>
@@ -1326,7 +1208,7 @@
       <c r="N17" s="9"/>
       <c r="O17" s="9"/>
     </row>
-    <row r="18" spans="1:15">
+    <row r="18" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A18" s="13">
         <v>17</v>
       </c>
@@ -1336,11 +1218,9 @@
       <c r="C18" s="13" t="s">
         <v>21</v>
       </c>
-      <c r="D18" s="13"/>
-      <c r="E18" s="15"/>
       <c r="F18" s="16"/>
       <c r="G18" s="19">
-        <v>10000</v>
+        <v>100000</v>
       </c>
       <c r="H18" s="17">
         <v>0</v>
@@ -1353,7 +1233,7 @@
       <c r="N18" s="14"/>
       <c r="O18" s="14"/>
     </row>
-    <row r="19" spans="1:15">
+    <row r="19" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A19" s="8">
         <v>18</v>
       </c>
@@ -1363,14 +1243,12 @@
       <c r="C19" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="D19" s="8"/>
-      <c r="E19" s="10"/>
       <c r="F19" s="11"/>
-      <c r="G19" s="12">
-        <v>0</v>
-      </c>
-      <c r="H19" s="18">
-        <v>30000</v>
+      <c r="G19" s="18">
+        <v>100000</v>
+      </c>
+      <c r="H19" s="12">
+        <v>0</v>
       </c>
       <c r="I19" s="8"/>
       <c r="J19" s="10"/>
@@ -1380,7 +1258,7 @@
       <c r="N19" s="9"/>
       <c r="O19" s="9"/>
     </row>
-    <row r="20" spans="1:15">
+    <row r="20" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A20" s="13">
         <v>19</v>
       </c>
@@ -1390,14 +1268,12 @@
       <c r="C20" s="13" t="s">
         <v>23</v>
       </c>
-      <c r="D20" s="13"/>
-      <c r="E20" s="15"/>
       <c r="F20" s="16"/>
-      <c r="G20" s="17">
-        <v>0</v>
-      </c>
-      <c r="H20" s="19">
-        <v>300000</v>
+      <c r="G20" s="19">
+        <v>100000</v>
+      </c>
+      <c r="H20" s="17">
+        <v>0</v>
       </c>
       <c r="I20" s="13"/>
       <c r="J20" s="15"/>
@@ -1407,7 +1283,7 @@
       <c r="N20" s="14"/>
       <c r="O20" s="14"/>
     </row>
-    <row r="21" spans="1:15">
+    <row r="21" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A21" s="8">
         <v>20</v>
       </c>
@@ -1417,11 +1293,9 @@
       <c r="C21" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="D21" s="8"/>
-      <c r="E21" s="10"/>
       <c r="F21" s="11"/>
       <c r="G21" s="18">
-        <v>310000</v>
+        <v>100000</v>
       </c>
       <c r="H21" s="12">
         <v>0</v>
@@ -1434,7 +1308,7 @@
       <c r="N21" s="9"/>
       <c r="O21" s="9"/>
     </row>
-    <row r="22" spans="1:15">
+    <row r="22" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A22" s="13">
         <v>21</v>
       </c>
@@ -1444,14 +1318,12 @@
       <c r="C22" s="13" t="s">
         <v>25</v>
       </c>
-      <c r="D22" s="13"/>
-      <c r="E22" s="15"/>
       <c r="F22" s="16"/>
-      <c r="G22" s="19">
-        <v>10000</v>
-      </c>
-      <c r="H22" s="17">
-        <v>0</v>
+      <c r="G22" s="17">
+        <v>0</v>
+      </c>
+      <c r="H22" s="19">
+        <v>48500</v>
       </c>
       <c r="I22" s="13"/>
       <c r="J22" s="15"/>
@@ -1461,7 +1333,7 @@
       <c r="N22" s="14"/>
       <c r="O22" s="14"/>
     </row>
-    <row r="23" spans="1:15">
+    <row r="23" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A23" s="8">
         <v>22</v>
       </c>
@@ -1471,14 +1343,12 @@
       <c r="C23" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="D23" s="8"/>
-      <c r="E23" s="10"/>
       <c r="F23" s="11"/>
-      <c r="G23" s="18">
-        <v>206541</v>
-      </c>
-      <c r="H23" s="12">
-        <v>0</v>
+      <c r="G23" s="12">
+        <v>0</v>
+      </c>
+      <c r="H23" s="18">
+        <v>120000</v>
       </c>
       <c r="I23" s="8"/>
       <c r="J23" s="10"/>
@@ -1488,7 +1358,7 @@
       <c r="N23" s="9"/>
       <c r="O23" s="9"/>
     </row>
-    <row r="24" spans="1:15">
+    <row r="24" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A24" s="13">
         <v>23</v>
       </c>
@@ -1498,14 +1368,12 @@
       <c r="C24" s="13" t="s">
         <v>27</v>
       </c>
-      <c r="D24" s="13"/>
-      <c r="E24" s="15"/>
       <c r="F24" s="16"/>
-      <c r="G24" s="17">
-        <v>0</v>
-      </c>
-      <c r="H24" s="19">
-        <v>300000</v>
+      <c r="G24" s="19">
+        <v>100000</v>
+      </c>
+      <c r="H24" s="17">
+        <v>0</v>
       </c>
       <c r="I24" s="13"/>
       <c r="J24" s="15"/>
@@ -1515,7 +1383,7 @@
       <c r="N24" s="14"/>
       <c r="O24" s="14"/>
     </row>
-    <row r="25" spans="1:15">
+    <row r="25" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A25" s="8">
         <v>24</v>
       </c>
@@ -1525,14 +1393,12 @@
       <c r="C25" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="D25" s="8"/>
-      <c r="E25" s="10"/>
       <c r="F25" s="11"/>
-      <c r="G25" s="18">
-        <v>30000</v>
-      </c>
-      <c r="H25" s="12">
-        <v>0</v>
+      <c r="G25" s="12">
+        <v>0</v>
+      </c>
+      <c r="H25" s="18">
+        <v>61000</v>
       </c>
       <c r="I25" s="8"/>
       <c r="J25" s="10"/>
@@ -1542,7 +1408,7 @@
       <c r="N25" s="9"/>
       <c r="O25" s="9"/>
     </row>
-    <row r="26" spans="1:15">
+    <row r="26" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A26" s="13">
         <v>25</v>
       </c>
@@ -1552,14 +1418,12 @@
       <c r="C26" s="13" t="s">
         <v>29</v>
       </c>
-      <c r="D26" s="13"/>
-      <c r="E26" s="15"/>
       <c r="F26" s="16"/>
-      <c r="G26" s="19">
-        <v>10000</v>
-      </c>
-      <c r="H26" s="17">
-        <v>0</v>
+      <c r="G26" s="17">
+        <v>0</v>
+      </c>
+      <c r="H26" s="19">
+        <v>500000</v>
       </c>
       <c r="I26" s="13"/>
       <c r="J26" s="15"/>
@@ -1569,7 +1433,7 @@
       <c r="N26" s="14"/>
       <c r="O26" s="14"/>
     </row>
-    <row r="27" spans="1:15">
+    <row r="27" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A27" s="8">
         <v>26</v>
       </c>
@@ -1579,11 +1443,9 @@
       <c r="C27" s="8" t="s">
         <v>30</v>
       </c>
-      <c r="D27" s="8"/>
-      <c r="E27" s="10"/>
       <c r="F27" s="11"/>
       <c r="G27" s="18">
-        <v>310000</v>
+        <v>100000</v>
       </c>
       <c r="H27" s="12">
         <v>0</v>
@@ -1596,7 +1458,7 @@
       <c r="N27" s="9"/>
       <c r="O27" s="9"/>
     </row>
-    <row r="28" spans="1:15">
+    <row r="28" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A28" s="13">
         <v>27</v>
       </c>
@@ -1606,14 +1468,12 @@
       <c r="C28" s="13" t="s">
         <v>31</v>
       </c>
-      <c r="D28" s="13"/>
-      <c r="E28" s="15"/>
       <c r="F28" s="16"/>
       <c r="G28" s="17">
         <v>0</v>
       </c>
       <c r="H28" s="19">
-        <v>13000</v>
+        <v>15000</v>
       </c>
       <c r="I28" s="13"/>
       <c r="J28" s="15"/>
@@ -1623,7 +1483,7 @@
       <c r="N28" s="14"/>
       <c r="O28" s="14"/>
     </row>
-    <row r="29" spans="1:15">
+    <row r="29" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A29" s="8">
         <v>28</v>
       </c>
@@ -1633,14 +1493,12 @@
       <c r="C29" s="8" t="s">
         <v>32</v>
       </c>
-      <c r="D29" s="8"/>
-      <c r="E29" s="10"/>
       <c r="F29" s="11"/>
-      <c r="G29" s="18">
-        <v>310000</v>
-      </c>
-      <c r="H29" s="12">
-        <v>0</v>
+      <c r="G29" s="12">
+        <v>0</v>
+      </c>
+      <c r="H29" s="18">
+        <v>52230</v>
       </c>
       <c r="I29" s="8"/>
       <c r="J29" s="10"/>
@@ -1650,7 +1508,7 @@
       <c r="N29" s="9"/>
       <c r="O29" s="9"/>
     </row>
-    <row r="30" spans="1:15">
+    <row r="30" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A30" s="13">
         <v>29</v>
       </c>
@@ -1660,14 +1518,12 @@
       <c r="C30" s="13" t="s">
         <v>33</v>
       </c>
-      <c r="D30" s="13"/>
-      <c r="E30" s="15"/>
       <c r="F30" s="16"/>
       <c r="G30" s="17">
         <v>0</v>
       </c>
       <c r="H30" s="19">
-        <v>300000</v>
+        <v>100500</v>
       </c>
       <c r="I30" s="13"/>
       <c r="J30" s="15"/>
@@ -1677,7 +1533,7 @@
       <c r="N30" s="14"/>
       <c r="O30" s="14"/>
     </row>
-    <row r="31" spans="1:15">
+    <row r="31" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A31" s="8">
         <v>30</v>
       </c>
@@ -1687,11 +1543,9 @@
       <c r="C31" s="8" t="s">
         <v>34</v>
       </c>
-      <c r="D31" s="8"/>
-      <c r="E31" s="10"/>
       <c r="F31" s="11"/>
       <c r="G31" s="18">
-        <v>40000</v>
+        <v>100000</v>
       </c>
       <c r="H31" s="12">
         <v>0</v>
@@ -1704,7 +1558,7 @@
       <c r="N31" s="9"/>
       <c r="O31" s="9"/>
     </row>
-    <row r="32" spans="1:15">
+    <row r="32" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A32" s="13">
         <v>31</v>
       </c>
@@ -1714,14 +1568,12 @@
       <c r="C32" s="13" t="s">
         <v>35</v>
       </c>
-      <c r="D32" s="13"/>
-      <c r="E32" s="15"/>
       <c r="F32" s="16"/>
-      <c r="G32" s="17">
-        <v>0</v>
-      </c>
-      <c r="H32" s="19">
-        <v>10000</v>
+      <c r="G32" s="19">
+        <v>100000</v>
+      </c>
+      <c r="H32" s="17">
+        <v>0</v>
       </c>
       <c r="I32" s="13"/>
       <c r="J32" s="15"/>
@@ -1731,7 +1583,7 @@
       <c r="N32" s="14"/>
       <c r="O32" s="14"/>
     </row>
-    <row r="33" spans="1:15">
+    <row r="33" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A33" s="8">
         <v>32</v>
       </c>
@@ -1741,14 +1593,12 @@
       <c r="C33" s="8" t="s">
         <v>36</v>
       </c>
-      <c r="D33" s="8"/>
-      <c r="E33" s="10"/>
       <c r="F33" s="11"/>
-      <c r="G33" s="12">
-        <v>0</v>
-      </c>
-      <c r="H33" s="18">
-        <v>53700</v>
+      <c r="G33" s="18">
+        <v>100000</v>
+      </c>
+      <c r="H33" s="12">
+        <v>0</v>
       </c>
       <c r="I33" s="8"/>
       <c r="J33" s="10"/>
@@ -1758,7 +1608,7 @@
       <c r="N33" s="9"/>
       <c r="O33" s="9"/>
     </row>
-    <row r="34" spans="1:15">
+    <row r="34" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A34" s="13">
         <v>33</v>
       </c>
@@ -1768,11 +1618,9 @@
       <c r="C34" s="13" t="s">
         <v>37</v>
       </c>
-      <c r="D34" s="13"/>
-      <c r="E34" s="15"/>
       <c r="F34" s="16"/>
       <c r="G34" s="19">
-        <v>10000</v>
+        <v>100000</v>
       </c>
       <c r="H34" s="17">
         <v>0</v>
@@ -1785,7 +1633,7 @@
       <c r="N34" s="14"/>
       <c r="O34" s="14"/>
     </row>
-    <row r="35" spans="1:15">
+    <row r="35" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A35" s="8">
         <v>34</v>
       </c>
@@ -1795,14 +1643,12 @@
       <c r="C35" s="8" t="s">
         <v>38</v>
       </c>
-      <c r="D35" s="8"/>
-      <c r="E35" s="10"/>
       <c r="F35" s="11"/>
-      <c r="G35" s="12">
-        <v>0</v>
-      </c>
-      <c r="H35" s="18">
-        <v>15440</v>
+      <c r="G35" s="18">
+        <v>300000</v>
+      </c>
+      <c r="H35" s="12">
+        <v>0</v>
       </c>
       <c r="I35" s="8"/>
       <c r="J35" s="10"/>
@@ -1812,7 +1658,7 @@
       <c r="N35" s="9"/>
       <c r="O35" s="9"/>
     </row>
-    <row r="36" spans="1:15">
+    <row r="36" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A36" s="13">
         <v>35</v>
       </c>
@@ -1822,14 +1668,12 @@
       <c r="C36" s="13" t="s">
         <v>39</v>
       </c>
-      <c r="D36" s="13"/>
-      <c r="E36" s="15"/>
       <c r="F36" s="16"/>
       <c r="G36" s="17">
         <v>0</v>
       </c>
       <c r="H36" s="19">
-        <v>900000</v>
+        <v>300000</v>
       </c>
       <c r="I36" s="13"/>
       <c r="J36" s="15"/>
@@ -1839,7 +1683,7 @@
       <c r="N36" s="14"/>
       <c r="O36" s="14"/>
     </row>
-    <row r="37" spans="1:15">
+    <row r="37" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A37" s="8">
         <v>36</v>
       </c>
@@ -1849,14 +1693,12 @@
       <c r="C37" s="8" t="s">
         <v>40</v>
       </c>
-      <c r="D37" s="8"/>
-      <c r="E37" s="10"/>
       <c r="F37" s="11"/>
       <c r="G37" s="12">
         <v>0</v>
       </c>
       <c r="H37" s="18">
-        <v>46600</v>
+        <v>189980</v>
       </c>
       <c r="I37" s="8"/>
       <c r="J37" s="10"/>
@@ -1866,7 +1708,7 @@
       <c r="N37" s="9"/>
       <c r="O37" s="9"/>
     </row>
-    <row r="38" spans="1:15">
+    <row r="38" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A38" s="13">
         <v>37</v>
       </c>
@@ -1876,11 +1718,9 @@
       <c r="C38" s="13" t="s">
         <v>41</v>
       </c>
-      <c r="D38" s="13"/>
-      <c r="E38" s="15"/>
       <c r="F38" s="16"/>
       <c r="G38" s="19">
-        <v>900000</v>
+        <v>200000</v>
       </c>
       <c r="H38" s="17">
         <v>0</v>
@@ -1893,7 +1733,7 @@
       <c r="N38" s="14"/>
       <c r="O38" s="14"/>
     </row>
-    <row r="39" spans="1:15">
+    <row r="39" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A39" s="8">
         <v>38</v>
       </c>
@@ -1903,14 +1743,12 @@
       <c r="C39" s="8" t="s">
         <v>42</v>
       </c>
-      <c r="D39" s="8"/>
-      <c r="E39" s="10"/>
       <c r="F39" s="11"/>
-      <c r="G39" s="12">
-        <v>0</v>
-      </c>
-      <c r="H39" s="18">
-        <v>55000</v>
+      <c r="G39" s="18">
+        <v>100000</v>
+      </c>
+      <c r="H39" s="12">
+        <v>0</v>
       </c>
       <c r="I39" s="8"/>
       <c r="J39" s="10"/>
@@ -1920,7 +1758,7 @@
       <c r="N39" s="9"/>
       <c r="O39" s="9"/>
     </row>
-    <row r="40" spans="1:15">
+    <row r="40" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A40" s="13">
         <v>39</v>
       </c>
@@ -1930,14 +1768,12 @@
       <c r="C40" s="13" t="s">
         <v>43</v>
       </c>
-      <c r="D40" s="13"/>
-      <c r="E40" s="15"/>
       <c r="F40" s="16"/>
-      <c r="G40" s="17">
-        <v>0</v>
-      </c>
-      <c r="H40" s="19">
-        <v>60000</v>
+      <c r="G40" s="19">
+        <v>100000</v>
+      </c>
+      <c r="H40" s="17">
+        <v>0</v>
       </c>
       <c r="I40" s="13"/>
       <c r="J40" s="15"/>
@@ -1947,7 +1783,7 @@
       <c r="N40" s="14"/>
       <c r="O40" s="14"/>
     </row>
-    <row r="41" spans="1:15">
+    <row r="41" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A41" s="8">
         <v>40</v>
       </c>
@@ -1957,14 +1793,12 @@
       <c r="C41" s="8" t="s">
         <v>44</v>
       </c>
-      <c r="D41" s="8"/>
-      <c r="E41" s="10"/>
       <c r="F41" s="11"/>
-      <c r="G41" s="18">
-        <v>30000</v>
-      </c>
-      <c r="H41" s="12">
-        <v>0</v>
+      <c r="G41" s="12">
+        <v>0</v>
+      </c>
+      <c r="H41" s="18">
+        <v>134000</v>
       </c>
       <c r="I41" s="8"/>
       <c r="J41" s="10"/>
@@ -1974,7 +1808,7 @@
       <c r="N41" s="9"/>
       <c r="O41" s="9"/>
     </row>
-    <row r="42" spans="1:15">
+    <row r="42" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A42" s="13">
         <v>41</v>
       </c>
@@ -1984,14 +1818,12 @@
       <c r="C42" s="13" t="s">
         <v>45</v>
       </c>
-      <c r="D42" s="13"/>
-      <c r="E42" s="15"/>
       <c r="F42" s="16"/>
-      <c r="G42" s="19">
-        <v>10000</v>
-      </c>
-      <c r="H42" s="17">
-        <v>0</v>
+      <c r="G42" s="17">
+        <v>0</v>
+      </c>
+      <c r="H42" s="19">
+        <v>350000</v>
       </c>
       <c r="I42" s="13"/>
       <c r="J42" s="15"/>
@@ -2001,7 +1833,7 @@
       <c r="N42" s="14"/>
       <c r="O42" s="14"/>
     </row>
-    <row r="43" spans="1:15">
+    <row r="43" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A43" s="8">
         <v>42</v>
       </c>
@@ -2011,11 +1843,9 @@
       <c r="C43" s="8" t="s">
         <v>46</v>
       </c>
-      <c r="D43" s="8"/>
-      <c r="E43" s="10"/>
       <c r="F43" s="11"/>
       <c r="G43" s="18">
-        <v>300000</v>
+        <v>100000</v>
       </c>
       <c r="H43" s="12">
         <v>0</v>
@@ -2028,7 +1858,7 @@
       <c r="N43" s="9"/>
       <c r="O43" s="9"/>
     </row>
-    <row r="44" spans="1:15">
+    <row r="44" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A44" s="13">
         <v>43</v>
       </c>
@@ -2038,11 +1868,9 @@
       <c r="C44" s="13" t="s">
         <v>47</v>
       </c>
-      <c r="D44" s="13"/>
-      <c r="E44" s="15"/>
       <c r="F44" s="16"/>
       <c r="G44" s="19">
-        <v>10000</v>
+        <v>100000</v>
       </c>
       <c r="H44" s="17">
         <v>0</v>
@@ -2055,7 +1883,7 @@
       <c r="N44" s="14"/>
       <c r="O44" s="14"/>
     </row>
-    <row r="45" spans="1:15">
+    <row r="45" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A45" s="8">
         <v>44</v>
       </c>
@@ -2065,14 +1893,12 @@
       <c r="C45" s="8" t="s">
         <v>48</v>
       </c>
-      <c r="D45" s="8"/>
-      <c r="E45" s="10"/>
       <c r="F45" s="11"/>
       <c r="G45" s="12">
         <v>0</v>
       </c>
       <c r="H45" s="18">
-        <v>144300</v>
+        <v>25000</v>
       </c>
       <c r="I45" s="8"/>
       <c r="J45" s="10"/>
@@ -2082,7 +1908,7 @@
       <c r="N45" s="9"/>
       <c r="O45" s="9"/>
     </row>
-    <row r="46" spans="1:15">
+    <row r="46" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A46" s="13">
         <v>45</v>
       </c>
@@ -2092,14 +1918,12 @@
       <c r="C46" s="13" t="s">
         <v>49</v>
       </c>
-      <c r="D46" s="13"/>
-      <c r="E46" s="15"/>
       <c r="F46" s="16"/>
-      <c r="G46" s="17">
-        <v>0</v>
-      </c>
-      <c r="H46" s="19">
-        <v>30000</v>
+      <c r="G46" s="19">
+        <v>100000</v>
+      </c>
+      <c r="H46" s="17">
+        <v>0</v>
       </c>
       <c r="I46" s="13"/>
       <c r="J46" s="15"/>
@@ -2109,7 +1933,7 @@
       <c r="N46" s="14"/>
       <c r="O46" s="14"/>
     </row>
-    <row r="47" spans="1:15">
+    <row r="47" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A47" s="8">
         <v>46</v>
       </c>
@@ -2119,14 +1943,12 @@
       <c r="C47" s="8" t="s">
         <v>50</v>
       </c>
-      <c r="D47" s="8"/>
-      <c r="E47" s="10"/>
       <c r="F47" s="11"/>
-      <c r="G47" s="12">
-        <v>0</v>
-      </c>
-      <c r="H47" s="18">
-        <v>50000</v>
+      <c r="G47" s="18">
+        <v>25000</v>
+      </c>
+      <c r="H47" s="12">
+        <v>0</v>
       </c>
       <c r="I47" s="8"/>
       <c r="J47" s="10"/>
@@ -2136,7 +1958,7 @@
       <c r="N47" s="9"/>
       <c r="O47" s="9"/>
     </row>
-    <row r="48" spans="1:15">
+    <row r="48" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A48" s="13">
         <v>47</v>
       </c>
@@ -2146,14 +1968,12 @@
       <c r="C48" s="13" t="s">
         <v>51</v>
       </c>
-      <c r="D48" s="13"/>
-      <c r="E48" s="15"/>
       <c r="F48" s="16"/>
-      <c r="G48" s="17">
-        <v>0</v>
-      </c>
-      <c r="H48" s="19">
-        <v>105440</v>
+      <c r="G48" s="19">
+        <v>100000</v>
+      </c>
+      <c r="H48" s="17">
+        <v>0</v>
       </c>
       <c r="I48" s="13"/>
       <c r="J48" s="15"/>
@@ -2163,7 +1983,7 @@
       <c r="N48" s="14"/>
       <c r="O48" s="14"/>
     </row>
-    <row r="49" spans="1:15">
+    <row r="49" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A49" s="8">
         <v>48</v>
       </c>
@@ -2173,14 +1993,12 @@
       <c r="C49" s="8" t="s">
         <v>52</v>
       </c>
-      <c r="D49" s="8"/>
-      <c r="E49" s="10"/>
       <c r="F49" s="11"/>
-      <c r="G49" s="12">
-        <v>0</v>
-      </c>
-      <c r="H49" s="18">
-        <v>92696</v>
+      <c r="G49" s="18">
+        <v>200000</v>
+      </c>
+      <c r="H49" s="12">
+        <v>0</v>
       </c>
       <c r="I49" s="8"/>
       <c r="J49" s="10"/>
@@ -2190,7 +2008,7 @@
       <c r="N49" s="9"/>
       <c r="O49" s="9"/>
     </row>
-    <row r="50" spans="1:15">
+    <row r="50" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A50" s="13">
         <v>49</v>
       </c>
@@ -2200,14 +2018,12 @@
       <c r="C50" s="13" t="s">
         <v>53</v>
       </c>
-      <c r="D50" s="13"/>
-      <c r="E50" s="15"/>
       <c r="F50" s="16"/>
-      <c r="G50" s="17">
-        <v>0</v>
-      </c>
-      <c r="H50" s="19">
-        <v>45000</v>
+      <c r="G50" s="19">
+        <v>100000</v>
+      </c>
+      <c r="H50" s="17">
+        <v>0</v>
       </c>
       <c r="I50" s="13"/>
       <c r="J50" s="15"/>
@@ -2217,7 +2033,7 @@
       <c r="N50" s="14"/>
       <c r="O50" s="14"/>
     </row>
-    <row r="51" spans="1:15">
+    <row r="51" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A51" s="8">
         <v>50</v>
       </c>
@@ -2227,14 +2043,12 @@
       <c r="C51" s="8" t="s">
         <v>54</v>
       </c>
-      <c r="D51" s="8"/>
-      <c r="E51" s="10"/>
       <c r="F51" s="11"/>
-      <c r="G51" s="12">
-        <v>0</v>
-      </c>
-      <c r="H51" s="18">
-        <v>59000</v>
+      <c r="G51" s="18">
+        <v>100000</v>
+      </c>
+      <c r="H51" s="12">
+        <v>0</v>
       </c>
       <c r="I51" s="8"/>
       <c r="J51" s="10"/>
@@ -2244,7 +2058,7 @@
       <c r="N51" s="9"/>
       <c r="O51" s="9"/>
     </row>
-    <row r="52" spans="1:15">
+    <row r="52" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A52" s="13">
         <v>51</v>
       </c>
@@ -2254,14 +2068,12 @@
       <c r="C52" s="13" t="s">
         <v>55</v>
       </c>
-      <c r="D52" s="13"/>
-      <c r="E52" s="15"/>
       <c r="F52" s="16"/>
-      <c r="G52" s="19">
-        <v>10000</v>
-      </c>
-      <c r="H52" s="17">
-        <v>0</v>
+      <c r="G52" s="17">
+        <v>0</v>
+      </c>
+      <c r="H52" s="19">
+        <v>95200</v>
       </c>
       <c r="I52" s="13"/>
       <c r="J52" s="15"/>
@@ -2271,7 +2083,7 @@
       <c r="N52" s="14"/>
       <c r="O52" s="14"/>
     </row>
-    <row r="53" spans="1:15">
+    <row r="53" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A53" s="8">
         <v>52</v>
       </c>
@@ -2281,11 +2093,9 @@
       <c r="C53" s="8" t="s">
         <v>56</v>
       </c>
-      <c r="D53" s="8"/>
-      <c r="E53" s="10"/>
       <c r="F53" s="11"/>
       <c r="G53" s="18">
-        <v>10000</v>
+        <v>100000</v>
       </c>
       <c r="H53" s="12">
         <v>0</v>
@@ -2298,7 +2108,7 @@
       <c r="N53" s="9"/>
       <c r="O53" s="9"/>
     </row>
-    <row r="54" spans="1:15">
+    <row r="54" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A54" s="13">
         <v>53</v>
       </c>
@@ -2308,14 +2118,12 @@
       <c r="C54" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="D54" s="13"/>
-      <c r="E54" s="15"/>
       <c r="F54" s="16"/>
       <c r="G54" s="17">
         <v>0</v>
       </c>
-      <c r="H54" s="17">
-        <v>10</v>
+      <c r="H54" s="19">
+        <v>618250</v>
       </c>
       <c r="I54" s="13"/>
       <c r="J54" s="15"/>
@@ -2325,7 +2133,7 @@
       <c r="N54" s="14"/>
       <c r="O54" s="14"/>
     </row>
-    <row r="55" spans="1:15">
+    <row r="55" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A55" s="8">
         <v>54</v>
       </c>
@@ -2335,11 +2143,9 @@
       <c r="C55" s="8" t="s">
         <v>58</v>
       </c>
-      <c r="D55" s="8"/>
-      <c r="E55" s="10"/>
       <c r="F55" s="11"/>
-      <c r="G55" s="12">
-        <v>93</v>
+      <c r="G55" s="18">
+        <v>100000</v>
       </c>
       <c r="H55" s="12">
         <v>0</v>
@@ -2352,7 +2158,7 @@
       <c r="N55" s="9"/>
       <c r="O55" s="9"/>
     </row>
-    <row r="56" spans="1:15">
+    <row r="56" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A56" s="13">
         <v>55</v>
       </c>
@@ -2362,14 +2168,12 @@
       <c r="C56" s="13" t="s">
         <v>59</v>
       </c>
-      <c r="D56" s="13"/>
-      <c r="E56" s="15"/>
       <c r="F56" s="16"/>
-      <c r="G56" s="17">
-        <v>0</v>
-      </c>
-      <c r="H56" s="19">
-        <v>50000</v>
+      <c r="G56" s="19">
+        <v>200126</v>
+      </c>
+      <c r="H56" s="17">
+        <v>0</v>
       </c>
       <c r="I56" s="13"/>
       <c r="J56" s="15"/>
@@ -2379,7 +2183,7 @@
       <c r="N56" s="14"/>
       <c r="O56" s="14"/>
     </row>
-    <row r="57" spans="1:15">
+    <row r="57" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A57" s="8">
         <v>56</v>
       </c>
@@ -2389,14 +2193,12 @@
       <c r="C57" s="8" t="s">
         <v>60</v>
       </c>
-      <c r="D57" s="8"/>
-      <c r="E57" s="10"/>
       <c r="F57" s="11"/>
-      <c r="G57" s="18">
-        <v>300000</v>
+      <c r="G57" s="12">
+        <v>0</v>
       </c>
       <c r="H57" s="12">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="I57" s="8"/>
       <c r="J57" s="10"/>
@@ -2406,7 +2208,7 @@
       <c r="N57" s="9"/>
       <c r="O57" s="9"/>
     </row>
-    <row r="58" spans="1:15">
+    <row r="58" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A58" s="13">
         <v>57</v>
       </c>
@@ -2416,14 +2218,12 @@
       <c r="C58" s="13" t="s">
         <v>61</v>
       </c>
-      <c r="D58" s="13"/>
-      <c r="E58" s="15"/>
       <c r="F58" s="16"/>
-      <c r="G58" s="17">
-        <v>0</v>
-      </c>
-      <c r="H58" s="19">
-        <v>240000</v>
+      <c r="G58" s="19">
+        <v>200000</v>
+      </c>
+      <c r="H58" s="17">
+        <v>0</v>
       </c>
       <c r="I58" s="13"/>
       <c r="J58" s="15"/>
@@ -2433,7 +2233,7 @@
       <c r="N58" s="14"/>
       <c r="O58" s="14"/>
     </row>
-    <row r="59" spans="1:15">
+    <row r="59" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A59" s="8">
         <v>58</v>
       </c>
@@ -2443,14 +2243,12 @@
       <c r="C59" s="8" t="s">
         <v>62</v>
       </c>
-      <c r="D59" s="8"/>
-      <c r="E59" s="10"/>
       <c r="F59" s="11"/>
       <c r="G59" s="12">
         <v>0</v>
       </c>
       <c r="H59" s="18">
-        <v>11000</v>
+        <v>618250</v>
       </c>
       <c r="I59" s="8"/>
       <c r="J59" s="10"/>
@@ -2460,7 +2258,7 @@
       <c r="N59" s="9"/>
       <c r="O59" s="9"/>
     </row>
-    <row r="60" spans="1:15">
+    <row r="60" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A60" s="13">
         <v>59</v>
       </c>
@@ -2470,14 +2268,12 @@
       <c r="C60" s="13" t="s">
         <v>63</v>
       </c>
-      <c r="D60" s="13"/>
-      <c r="E60" s="15"/>
       <c r="F60" s="16"/>
-      <c r="G60" s="17">
-        <v>0</v>
-      </c>
-      <c r="H60" s="19">
-        <v>13200</v>
+      <c r="G60" s="19">
+        <v>100000</v>
+      </c>
+      <c r="H60" s="17">
+        <v>0</v>
       </c>
       <c r="I60" s="13"/>
       <c r="J60" s="15"/>
@@ -2487,7 +2283,7 @@
       <c r="N60" s="14"/>
       <c r="O60" s="14"/>
     </row>
-    <row r="61" spans="1:15">
+    <row r="61" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A61" s="8">
         <v>60</v>
       </c>
@@ -2497,11 +2293,9 @@
       <c r="C61" s="8" t="s">
         <v>64</v>
       </c>
-      <c r="D61" s="8"/>
-      <c r="E61" s="10"/>
       <c r="F61" s="11"/>
       <c r="G61" s="18">
-        <v>300000</v>
+        <v>100000</v>
       </c>
       <c r="H61" s="12">
         <v>0</v>
@@ -2514,7 +2308,7 @@
       <c r="N61" s="9"/>
       <c r="O61" s="9"/>
     </row>
-    <row r="62" spans="1:15">
+    <row r="62" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A62" s="13">
         <v>61</v>
       </c>
@@ -2524,14 +2318,12 @@
       <c r="C62" s="13" t="s">
         <v>65</v>
       </c>
-      <c r="D62" s="13"/>
-      <c r="E62" s="15"/>
       <c r="F62" s="16"/>
-      <c r="G62" s="19">
-        <v>10000</v>
-      </c>
-      <c r="H62" s="17">
-        <v>0</v>
+      <c r="G62" s="17">
+        <v>0</v>
+      </c>
+      <c r="H62" s="19">
+        <v>99000</v>
       </c>
       <c r="I62" s="13"/>
       <c r="J62" s="15"/>
@@ -2541,7 +2333,7 @@
       <c r="N62" s="14"/>
       <c r="O62" s="14"/>
     </row>
-    <row r="63" spans="1:15">
+    <row r="63" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A63" s="8">
         <v>62</v>
       </c>
@@ -2551,14 +2343,12 @@
       <c r="C63" s="8" t="s">
         <v>66</v>
       </c>
-      <c r="D63" s="8"/>
-      <c r="E63" s="10"/>
       <c r="F63" s="11"/>
-      <c r="G63" s="18">
-        <v>10000</v>
-      </c>
-      <c r="H63" s="12">
-        <v>0</v>
+      <c r="G63" s="12">
+        <v>0</v>
+      </c>
+      <c r="H63" s="18">
+        <v>30000</v>
       </c>
       <c r="I63" s="8"/>
       <c r="J63" s="10"/>
@@ -2568,7 +2358,7 @@
       <c r="N63" s="9"/>
       <c r="O63" s="9"/>
     </row>
-    <row r="64" spans="1:15">
+    <row r="64" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A64" s="13">
         <v>63</v>
       </c>
@@ -2578,14 +2368,12 @@
       <c r="C64" s="13" t="s">
         <v>67</v>
       </c>
-      <c r="D64" s="13"/>
-      <c r="E64" s="15"/>
       <c r="F64" s="16"/>
-      <c r="G64" s="17">
-        <v>0</v>
-      </c>
-      <c r="H64" s="19">
-        <v>89510</v>
+      <c r="G64" s="19">
+        <v>100000</v>
+      </c>
+      <c r="H64" s="17">
+        <v>0</v>
       </c>
       <c r="I64" s="13"/>
       <c r="J64" s="15"/>
@@ -2595,7 +2383,7 @@
       <c r="N64" s="14"/>
       <c r="O64" s="14"/>
     </row>
-    <row r="65" spans="1:15">
+    <row r="65" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A65" s="8">
         <v>64</v>
       </c>
@@ -2605,11 +2393,9 @@
       <c r="C65" s="8" t="s">
         <v>68</v>
       </c>
-      <c r="D65" s="8"/>
-      <c r="E65" s="10"/>
       <c r="F65" s="11"/>
       <c r="G65" s="18">
-        <v>310000</v>
+        <v>100000</v>
       </c>
       <c r="H65" s="12">
         <v>0</v>
@@ -2622,7 +2408,7 @@
       <c r="N65" s="9"/>
       <c r="O65" s="9"/>
     </row>
-    <row r="66" spans="1:15">
+    <row r="66" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A66" s="13">
         <v>65</v>
       </c>
@@ -2632,14 +2418,12 @@
       <c r="C66" s="13" t="s">
         <v>69</v>
       </c>
-      <c r="D66" s="13"/>
-      <c r="E66" s="15"/>
       <c r="F66" s="16"/>
-      <c r="G66" s="19">
-        <v>10000</v>
-      </c>
-      <c r="H66" s="17">
-        <v>0</v>
+      <c r="G66" s="17">
+        <v>0</v>
+      </c>
+      <c r="H66" s="19">
+        <v>61000</v>
       </c>
       <c r="I66" s="13"/>
       <c r="J66" s="15"/>
@@ -2649,7 +2433,7 @@
       <c r="N66" s="14"/>
       <c r="O66" s="14"/>
     </row>
-    <row r="67" spans="1:15">
+    <row r="67" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A67" s="8">
         <v>66</v>
       </c>
@@ -2659,11 +2443,9 @@
       <c r="C67" s="8" t="s">
         <v>70</v>
       </c>
-      <c r="D67" s="8"/>
-      <c r="E67" s="10"/>
       <c r="F67" s="11"/>
       <c r="G67" s="18">
-        <v>10000</v>
+        <v>100000</v>
       </c>
       <c r="H67" s="12">
         <v>0</v>
@@ -2676,7 +2458,7 @@
       <c r="N67" s="9"/>
       <c r="O67" s="9"/>
     </row>
-    <row r="68" spans="1:15">
+    <row r="68" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A68" s="13">
         <v>67</v>
       </c>
@@ -2686,14 +2468,12 @@
       <c r="C68" s="13" t="s">
         <v>71</v>
       </c>
-      <c r="D68" s="13"/>
-      <c r="E68" s="15"/>
       <c r="F68" s="16"/>
       <c r="G68" s="17">
         <v>0</v>
       </c>
       <c r="H68" s="19">
-        <v>287130</v>
+        <v>490560</v>
       </c>
       <c r="I68" s="13"/>
       <c r="J68" s="15"/>
@@ -2703,7 +2483,7 @@
       <c r="N68" s="14"/>
       <c r="O68" s="14"/>
     </row>
-    <row r="69" spans="1:15">
+    <row r="69" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A69" s="8">
         <v>68</v>
       </c>
@@ -2713,14 +2493,12 @@
       <c r="C69" s="8" t="s">
         <v>72</v>
       </c>
-      <c r="D69" s="8"/>
-      <c r="E69" s="10"/>
       <c r="F69" s="11"/>
-      <c r="G69" s="12">
-        <v>0</v>
-      </c>
-      <c r="H69" s="18">
-        <v>300000</v>
+      <c r="G69" s="18">
+        <v>100000</v>
+      </c>
+      <c r="H69" s="12">
+        <v>0</v>
       </c>
       <c r="I69" s="8"/>
       <c r="J69" s="10"/>
@@ -2730,7 +2508,7 @@
       <c r="N69" s="9"/>
       <c r="O69" s="9"/>
     </row>
-    <row r="70" spans="1:15">
+    <row r="70" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A70" s="13">
         <v>69</v>
       </c>
@@ -2740,14 +2518,12 @@
       <c r="C70" s="13" t="s">
         <v>73</v>
       </c>
-      <c r="D70" s="13"/>
-      <c r="E70" s="15"/>
       <c r="F70" s="16"/>
-      <c r="G70" s="17">
-        <v>0</v>
-      </c>
-      <c r="H70" s="19">
-        <v>70000</v>
+      <c r="G70" s="19">
+        <v>100000</v>
+      </c>
+      <c r="H70" s="17">
+        <v>0</v>
       </c>
       <c r="I70" s="13"/>
       <c r="J70" s="15"/>
@@ -2757,7 +2533,7 @@
       <c r="N70" s="14"/>
       <c r="O70" s="14"/>
     </row>
-    <row r="71" spans="1:15">
+    <row r="71" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A71" s="8">
         <v>70</v>
       </c>
@@ -2767,14 +2543,12 @@
       <c r="C71" s="8" t="s">
         <v>74</v>
       </c>
-      <c r="D71" s="8"/>
-      <c r="E71" s="10"/>
       <c r="F71" s="11"/>
-      <c r="G71" s="18">
-        <v>300000</v>
-      </c>
-      <c r="H71" s="12">
-        <v>0</v>
+      <c r="G71" s="12">
+        <v>0</v>
+      </c>
+      <c r="H71" s="18">
+        <v>338308</v>
       </c>
       <c r="I71" s="8"/>
       <c r="J71" s="10"/>
@@ -2784,7 +2558,7 @@
       <c r="N71" s="9"/>
       <c r="O71" s="9"/>
     </row>
-    <row r="72" spans="1:15">
+    <row r="72" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A72" s="13">
         <v>71</v>
       </c>
@@ -2794,11 +2568,9 @@
       <c r="C72" s="13" t="s">
         <v>75</v>
       </c>
-      <c r="D72" s="13"/>
-      <c r="E72" s="15"/>
       <c r="F72" s="16"/>
       <c r="G72" s="19">
-        <v>70000</v>
+        <v>200000</v>
       </c>
       <c r="H72" s="17">
         <v>0</v>
@@ -2811,7 +2583,7 @@
       <c r="N72" s="14"/>
       <c r="O72" s="14"/>
     </row>
-    <row r="73" spans="1:15">
+    <row r="73" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A73" s="8">
         <v>72</v>
       </c>
@@ -2821,14 +2593,12 @@
       <c r="C73" s="8" t="s">
         <v>76</v>
       </c>
-      <c r="D73" s="8"/>
-      <c r="E73" s="10"/>
       <c r="F73" s="11"/>
-      <c r="G73" s="12">
-        <v>0</v>
-      </c>
-      <c r="H73" s="18">
-        <v>49000</v>
+      <c r="G73" s="18">
+        <v>100000</v>
+      </c>
+      <c r="H73" s="12">
+        <v>0</v>
       </c>
       <c r="I73" s="8"/>
       <c r="J73" s="10"/>
@@ -2838,7 +2608,7 @@
       <c r="N73" s="9"/>
       <c r="O73" s="9"/>
     </row>
-    <row r="74" spans="1:15">
+    <row r="74" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A74" s="13">
         <v>73</v>
       </c>
@@ -2848,14 +2618,12 @@
       <c r="C74" s="13" t="s">
         <v>77</v>
       </c>
-      <c r="D74" s="13"/>
-      <c r="E74" s="15"/>
       <c r="F74" s="16"/>
-      <c r="G74" s="17">
-        <v>0</v>
-      </c>
-      <c r="H74" s="19">
-        <v>74000</v>
+      <c r="G74" s="19">
+        <v>100000</v>
+      </c>
+      <c r="H74" s="17">
+        <v>0</v>
       </c>
       <c r="I74" s="13"/>
       <c r="J74" s="15"/>
@@ -2865,7 +2633,7 @@
       <c r="N74" s="14"/>
       <c r="O74" s="14"/>
     </row>
-    <row r="75" spans="1:15">
+    <row r="75" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A75" s="8">
         <v>74</v>
       </c>
@@ -2875,11 +2643,9 @@
       <c r="C75" s="8" t="s">
         <v>78</v>
       </c>
-      <c r="D75" s="8"/>
-      <c r="E75" s="10"/>
       <c r="F75" s="11"/>
       <c r="G75" s="18">
-        <v>90000</v>
+        <v>100000</v>
       </c>
       <c r="H75" s="12">
         <v>0</v>
@@ -2892,7 +2658,7 @@
       <c r="N75" s="9"/>
       <c r="O75" s="9"/>
     </row>
-    <row r="76" spans="1:15">
+    <row r="76" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A76" s="13">
         <v>75</v>
       </c>
@@ -2902,14 +2668,12 @@
       <c r="C76" s="13" t="s">
         <v>79</v>
       </c>
-      <c r="D76" s="13"/>
-      <c r="E76" s="15"/>
       <c r="F76" s="16"/>
-      <c r="G76" s="17">
-        <v>0</v>
-      </c>
-      <c r="H76" s="19">
-        <v>12000</v>
+      <c r="G76" s="19">
+        <v>200000</v>
+      </c>
+      <c r="H76" s="17">
+        <v>0</v>
       </c>
       <c r="I76" s="13"/>
       <c r="J76" s="15"/>
@@ -2919,7 +2683,7 @@
       <c r="N76" s="14"/>
       <c r="O76" s="14"/>
     </row>
-    <row r="77" spans="1:15">
+    <row r="77" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A77" s="8">
         <v>76</v>
       </c>
@@ -2929,11 +2693,9 @@
       <c r="C77" s="8" t="s">
         <v>80</v>
       </c>
-      <c r="D77" s="8"/>
-      <c r="E77" s="10"/>
       <c r="F77" s="11"/>
       <c r="G77" s="18">
-        <v>10000</v>
+        <v>100000</v>
       </c>
       <c r="H77" s="12">
         <v>0</v>
@@ -2946,7 +2708,7 @@
       <c r="N77" s="9"/>
       <c r="O77" s="9"/>
     </row>
-    <row r="78" spans="1:15">
+    <row r="78" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A78" s="13">
         <v>77</v>
       </c>
@@ -2956,14 +2718,12 @@
       <c r="C78" s="13" t="s">
         <v>81</v>
       </c>
-      <c r="D78" s="13"/>
-      <c r="E78" s="15"/>
       <c r="F78" s="16"/>
-      <c r="G78" s="17">
-        <v>0</v>
-      </c>
-      <c r="H78" s="19">
-        <v>12000</v>
+      <c r="G78" s="19">
+        <v>200000</v>
+      </c>
+      <c r="H78" s="17">
+        <v>0</v>
       </c>
       <c r="I78" s="13"/>
       <c r="J78" s="15"/>
@@ -2973,7 +2733,7 @@
       <c r="N78" s="14"/>
       <c r="O78" s="14"/>
     </row>
-    <row r="79" spans="1:15">
+    <row r="79" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A79" s="8">
         <v>78</v>
       </c>
@@ -2983,14 +2743,12 @@
       <c r="C79" s="8" t="s">
         <v>82</v>
       </c>
-      <c r="D79" s="8"/>
-      <c r="E79" s="10"/>
       <c r="F79" s="11"/>
       <c r="G79" s="12">
         <v>0</v>
       </c>
       <c r="H79" s="18">
-        <v>42300</v>
+        <v>380500</v>
       </c>
       <c r="I79" s="8"/>
       <c r="J79" s="10"/>
@@ -3000,7 +2758,7 @@
       <c r="N79" s="9"/>
       <c r="O79" s="9"/>
     </row>
-    <row r="80" spans="1:15">
+    <row r="80" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A80" s="13">
         <v>79</v>
       </c>
@@ -3010,14 +2768,12 @@
       <c r="C80" s="13" t="s">
         <v>83</v>
       </c>
-      <c r="D80" s="13"/>
-      <c r="E80" s="15"/>
       <c r="F80" s="16"/>
-      <c r="G80" s="19">
-        <v>350000</v>
-      </c>
-      <c r="H80" s="17">
-        <v>0</v>
+      <c r="G80" s="17">
+        <v>0</v>
+      </c>
+      <c r="H80" s="19">
+        <v>565600</v>
       </c>
       <c r="I80" s="13"/>
       <c r="J80" s="15"/>
@@ -3027,7 +2783,7 @@
       <c r="N80" s="14"/>
       <c r="O80" s="14"/>
     </row>
-    <row r="81" spans="1:15">
+    <row r="81" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A81" s="8">
         <v>80</v>
       </c>
@@ -3037,14 +2793,12 @@
       <c r="C81" s="8" t="s">
         <v>84</v>
       </c>
-      <c r="D81" s="8"/>
-      <c r="E81" s="10"/>
       <c r="F81" s="11"/>
-      <c r="G81" s="12">
-        <v>0</v>
-      </c>
-      <c r="H81" s="18">
-        <v>129000</v>
+      <c r="G81" s="18">
+        <v>100000</v>
+      </c>
+      <c r="H81" s="12">
+        <v>0</v>
       </c>
       <c r="I81" s="8"/>
       <c r="J81" s="10"/>
@@ -3054,277 +2808,24 @@
       <c r="N81" s="9"/>
       <c r="O81" s="9"/>
     </row>
-    <row r="82" spans="1:15">
+    <row r="82" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A82" s="13">
         <v>81</v>
       </c>
-      <c r="B82" s="14" t="s">
-        <v>1</v>
+      <c r="B82" s="9" t="s">
+        <v>87</v>
       </c>
       <c r="C82" s="13" t="s">
         <v>85</v>
       </c>
-      <c r="D82" s="13"/>
-      <c r="E82" s="15"/>
-      <c r="F82" s="16"/>
       <c r="G82" s="19">
-        <v>30000</v>
+        <v>100000</v>
       </c>
       <c r="H82" s="17">
         <v>0</v>
       </c>
-      <c r="I82" s="13"/>
-      <c r="J82" s="15"/>
-      <c r="K82" s="15"/>
-      <c r="L82" s="13"/>
-      <c r="M82" s="14"/>
-      <c r="N82" s="14"/>
-      <c r="O82" s="14"/>
-    </row>
-    <row r="83" spans="1:15">
-      <c r="A83" s="8">
-        <v>82</v>
-      </c>
-      <c r="B83" s="9" t="s">
-        <v>1</v>
-      </c>
-      <c r="C83" s="8" t="s">
-        <v>86</v>
-      </c>
-      <c r="D83" s="8"/>
-      <c r="E83" s="10"/>
-      <c r="F83" s="11"/>
-      <c r="G83" s="18">
-        <v>50000</v>
-      </c>
-      <c r="H83" s="12">
-        <v>0</v>
-      </c>
-      <c r="I83" s="8"/>
-      <c r="J83" s="10"/>
-      <c r="K83" s="10"/>
-      <c r="L83" s="8"/>
-      <c r="M83" s="9"/>
-      <c r="N83" s="9"/>
-      <c r="O83" s="9"/>
-    </row>
-    <row r="84" spans="1:15">
-      <c r="A84" s="13">
-        <v>83</v>
-      </c>
-      <c r="B84" s="14" t="s">
-        <v>1</v>
-      </c>
-      <c r="C84" s="13" t="s">
-        <v>87</v>
-      </c>
-      <c r="D84" s="13"/>
-      <c r="E84" s="15"/>
-      <c r="F84" s="16"/>
-      <c r="G84" s="19">
-        <v>10000</v>
-      </c>
-      <c r="H84" s="17">
-        <v>0</v>
-      </c>
-      <c r="I84" s="13"/>
-      <c r="J84" s="15"/>
-      <c r="K84" s="15"/>
-      <c r="L84" s="13"/>
-      <c r="M84" s="14"/>
-      <c r="N84" s="14"/>
-      <c r="O84" s="14"/>
-    </row>
-    <row r="85" spans="1:15">
-      <c r="A85" s="8">
-        <v>84</v>
-      </c>
-      <c r="B85" s="9" t="s">
-        <v>1</v>
-      </c>
-      <c r="C85" s="8" t="s">
-        <v>88</v>
-      </c>
-      <c r="D85" s="8"/>
-      <c r="E85" s="10"/>
-      <c r="F85" s="11"/>
-      <c r="G85" s="18">
-        <v>10000</v>
-      </c>
-      <c r="H85" s="12">
-        <v>0</v>
-      </c>
-      <c r="I85" s="8"/>
-      <c r="J85" s="10"/>
-      <c r="K85" s="10"/>
-      <c r="L85" s="8"/>
-      <c r="M85" s="9"/>
-      <c r="N85" s="9"/>
-      <c r="O85" s="9"/>
-    </row>
-    <row r="86" spans="1:15">
-      <c r="A86" s="13">
-        <v>85</v>
-      </c>
-      <c r="B86" s="14" t="s">
-        <v>1</v>
-      </c>
-      <c r="C86" s="13" t="s">
-        <v>89</v>
-      </c>
-      <c r="D86" s="13"/>
-      <c r="E86" s="15"/>
-      <c r="F86" s="16"/>
-      <c r="G86" s="19">
-        <v>10000</v>
-      </c>
-      <c r="H86" s="17">
-        <v>0</v>
-      </c>
-      <c r="I86" s="13"/>
-      <c r="J86" s="15"/>
-      <c r="K86" s="15"/>
-      <c r="L86" s="13"/>
-      <c r="M86" s="14"/>
-      <c r="N86" s="14"/>
-      <c r="O86" s="14"/>
-    </row>
-    <row r="87" spans="1:15">
-      <c r="A87" s="8">
-        <v>86</v>
-      </c>
-      <c r="B87" s="9" t="s">
-        <v>1</v>
-      </c>
-      <c r="C87" s="8" t="s">
-        <v>90</v>
-      </c>
-      <c r="D87" s="8"/>
-      <c r="E87" s="10"/>
-      <c r="F87" s="11"/>
-      <c r="G87" s="12">
-        <v>0</v>
-      </c>
-      <c r="H87" s="18">
-        <v>400000</v>
-      </c>
-      <c r="I87" s="8"/>
-      <c r="J87" s="10"/>
-      <c r="K87" s="10"/>
-      <c r="L87" s="8"/>
-      <c r="M87" s="9"/>
-      <c r="N87" s="9"/>
-      <c r="O87" s="9"/>
-    </row>
-    <row r="88" spans="1:15">
-      <c r="A88" s="13">
-        <v>87</v>
-      </c>
-      <c r="B88" s="14" t="s">
-        <v>1</v>
-      </c>
-      <c r="C88" s="13" t="s">
-        <v>91</v>
-      </c>
-      <c r="D88" s="13"/>
-      <c r="E88" s="15"/>
-      <c r="F88" s="16"/>
-      <c r="G88" s="19">
-        <v>10000</v>
-      </c>
-      <c r="H88" s="17">
-        <v>0</v>
-      </c>
-      <c r="I88" s="13"/>
-      <c r="J88" s="15"/>
-      <c r="K88" s="15"/>
-      <c r="L88" s="13"/>
-      <c r="M88" s="14"/>
-      <c r="N88" s="14"/>
-      <c r="O88" s="14"/>
-    </row>
-    <row r="89" spans="1:15">
-      <c r="A89" s="8">
-        <v>88</v>
-      </c>
-      <c r="B89" s="9" t="s">
-        <v>1</v>
-      </c>
-      <c r="C89" s="8" t="s">
-        <v>92</v>
-      </c>
-      <c r="D89" s="8"/>
-      <c r="E89" s="10"/>
-      <c r="F89" s="11"/>
-      <c r="G89" s="12">
-        <v>0</v>
-      </c>
-      <c r="H89" s="18">
-        <v>66000</v>
-      </c>
-      <c r="I89" s="8"/>
-      <c r="J89" s="10"/>
-      <c r="K89" s="10"/>
-      <c r="L89" s="8"/>
-      <c r="M89" s="9"/>
-      <c r="N89" s="9"/>
-      <c r="O89" s="9"/>
-    </row>
-    <row r="90" spans="1:15">
-      <c r="A90" s="13">
-        <v>89</v>
-      </c>
-      <c r="B90" s="14" t="s">
-        <v>1</v>
-      </c>
-      <c r="C90" s="13" t="s">
-        <v>93</v>
-      </c>
-      <c r="D90" s="13"/>
-      <c r="E90" s="15"/>
-      <c r="F90" s="16"/>
-      <c r="G90" s="17">
-        <v>0</v>
-      </c>
-      <c r="H90" s="19">
-        <v>69200</v>
-      </c>
-      <c r="I90" s="13"/>
-      <c r="J90" s="15"/>
-      <c r="K90" s="15"/>
-      <c r="L90" s="13"/>
-      <c r="M90" s="14"/>
-      <c r="N90" s="14"/>
-      <c r="O90" s="14"/>
-    </row>
-    <row r="91" spans="1:15">
-      <c r="A91" s="21" t="s">
-        <v>94</v>
-      </c>
-      <c r="B91" s="22"/>
-      <c r="C91" s="22"/>
-      <c r="D91" s="22"/>
-      <c r="E91" s="22"/>
-      <c r="F91" s="23"/>
-      <c r="G91" s="20">
-        <v>5136734</v>
-      </c>
-      <c r="H91" s="20">
-        <v>5477678</v>
-      </c>
-      <c r="I91" s="24"/>
-      <c r="J91" s="25"/>
-      <c r="K91" s="25"/>
-      <c r="L91" s="25"/>
-      <c r="M91" s="25"/>
-      <c r="N91" s="25"/>
-      <c r="O91" s="26"/>
     </row>
   </sheetData>
-  <mergeCells count="2">
-    <mergeCell ref="A91:F91"/>
-    <mergeCell ref="I91:O91"/>
-  </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
